--- a/assets/stages/maps/MapEditor/Room19.xlsx
+++ b/assets/stages/maps/MapEditor/Room19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779712F-2668-4C61-8C51-E85173EDCFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1217532A-3C8B-49B2-9629-677D606EDF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68" yWindow="-68" windowWidth="19335" windowHeight="12135" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="5">
     <dxf>
       <border>
         <left style="thin">
@@ -95,6 +95,20 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -127,84 +141,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,7 +421,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -495,31 +431,31 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1">
         <v>2</v>
@@ -593,7 +529,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>-1</v>
@@ -691,7 +627,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>-1</v>
@@ -789,7 +725,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>-1</v>
@@ -887,7 +823,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>-1</v>
@@ -905,13 +841,13 @@
         <v>-1</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -985,7 +921,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>-1</v>
@@ -1003,13 +939,13 @@
         <v>-1</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1083,7 +1019,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>-1</v>
@@ -1101,13 +1037,13 @@
         <v>-1</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1181,7 +1117,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>-1</v>
@@ -1199,13 +1135,13 @@
         <v>-1</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1282,28 +1218,28 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1380,28 +1316,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1493,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1591,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1689,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1787,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1885,13 +1821,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -1983,13 +1919,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2081,13 +2017,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2179,13 +2115,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2260,45 +2196,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B16 J1:J3 K1:K4 V5:AF5 Z12:AF14 AA8:AF8 AE4:AF8 C17:D17 AD9:AD14 AE8:AE15 S6:AF7 R15:AE16 K13:AD16 C6:J16 G17:AE18 K6:AD11 N2:O18 B2:AF4 A3:U5 A2:AF2 C4:AD5 P1:P3 Q1:Q4 T2:U18 M2:U5 I1:R1 A5:F10 G5:Y18 AD11:AF14 R9:AF13 R6:AE9">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="G1:S1">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:S1">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="J1:J3 P1:P3 K1:K4 Q1:Q4 A2:AF2 B2:AF4 M2:U5 N2:O18 A3:U5 C4:AD5 AE4:AF8 V5:AF5 A5:F10 S6:AF7 R6:AE9 K6:AD11 AA8:AF8 AE8:AE15 R9:AF13 AD9:AD14 AD11:AF14 Z12:AF14 K13:AD16 R15:AE16 C17:D17 G17:AE18 A1:A15 B5:B16 C6:J16 G3:H8 G5:Y18 B1:I1">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:Q1">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:U1">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:N1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:U1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="T1:U18">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2946,12 +2862,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="16" spans="29:29" x14ac:dyDescent="0.4">
+      <c r="AC16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2961,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="P6:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
@@ -2985,28 +2909,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B5:C6"/>
+  <dimension ref="D5:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="4:29" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="4:29" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="4:29" x14ac:dyDescent="0.4">
+      <c r="AC16">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
